--- a/Projects/Pennink-Model/cases/Series6/Series6.xlsx
+++ b/Projects/Pennink-Model/cases/Series6/Series6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Theo/GRWMODELS/python/mf6lab/Projects/Pennink-Model/cases/Series5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Theo/GRWMODELS/python/mf6lab/Projects/Pennink-Model/cases/Series6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8546D823-C070-0B44-ABB4-8DEA1F0579D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A581691-404D-434C-B50F-217199A60F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="1060" windowWidth="20120" windowHeight="21340" tabRatio="751" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14440" yWindow="1060" windowWidth="20120" windowHeight="21340" tabRatio="751" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NAM" sheetId="1" r:id="rId1"/>
@@ -1519,7 +1519,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1537,7 +1537,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3485,8 +3484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H477"/>
   <sheetViews>
-    <sheetView zoomScale="221" zoomScaleNormal="221" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="221" zoomScaleNormal="221" workbookViewId="0">
+      <selection activeCell="C426" sqref="C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7904,7 +7903,7 @@
         <v>306</v>
       </c>
       <c r="C425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.15">
@@ -11778,7 +11777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+    <sheetView zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -12020,7 +12019,7 @@
         <f>$B$9/2-B11</f>
         <v>5.2000000000000028</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11">
         <v>43.3</v>
       </c>
       <c r="C11">
